--- a/gerenciamento/requisitos/Lista de requisitos - ECM Interactive.xlsx
+++ b/gerenciamento/requisitos/Lista de requisitos - ECM Interactive.xlsx
@@ -648,7 +648,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>

--- a/gerenciamento/requisitos/Lista de requisitos - ECM Interactive.xlsx
+++ b/gerenciamento/requisitos/Lista de requisitos - ECM Interactive.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Requisitos" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
   <si>
     <t>Requisitos Funcionais</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>Responsável</t>
+  </si>
+  <si>
+    <t>Acessar o repositório</t>
   </si>
 </sst>
 </file>
@@ -648,7 +651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
@@ -1395,13 +1398,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="41.5703125" customWidth="1"/>
+    <col min="1" max="1" width="41.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="101.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1418,7 +1422,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>63</v>
